--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P33_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P33_trail5 Features.xlsx
@@ -830,7 +830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,28 +842,26 @@
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="21" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -884,115 +882,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -1009,72 +997,66 @@
         <v>1.998080916277465e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.1412371977981998</v>
+        <v>6.828687490156742e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.593526018292506</v>
+        <v>3.952710944917321e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>6.828687490156742e-07</v>
+        <v>-0.05137768652200472</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.952710944917321e-06</v>
+        <v>0.1432003955324039</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.05137768652200472</v>
+        <v>0.02309689411479706</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1432003955324039</v>
+        <v>1.525394536647194</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02309689411479706</v>
+        <v>1.707073806541559</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.428618666162348</v>
+        <v>3.581543002484362</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.707073806541559</v>
+        <v>6.471331892930849e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.581543002484362</v>
+        <v>37067077.59826168</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6.471331892930849e-15</v>
+        <v>2.806691121352597e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>37067077.59826168</v>
+        <v>8.891404502229129</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.806691121352597e-06</v>
+        <v>0.0001081086834517902</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>8.891404502229129</v>
+        <v>9.371352393560763</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001081086834517902</v>
+        <v>1.365686881476254</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.371352393560763</v>
+        <v>0.009494347358709018</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.365686881476254</v>
+        <v>3.287405794769245</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.009494347358709018</v>
+        <v>0.9389594821332076</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.287405794769245</v>
+        <v>1.867289830282319</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9389594821332076</v>
+        <v>12</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.867289830282319</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2207518343137786</v>
       </c>
     </row>
@@ -1089,72 +1071,66 @@
         <v>1.965937993315411e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.1147796349870104</v>
+        <v>5.394254086964162e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.66335348371147</v>
+        <v>3.94381876357515e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5.394254086964162e-07</v>
+        <v>-0.03907379260668947</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.94381876357515e-06</v>
+        <v>0.1157745015283359</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.03907379260668947</v>
+        <v>0.01490821204414774</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1157745015283359</v>
+        <v>1.501957376677746</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01490821204414774</v>
+        <v>1.643605194074302</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.409949989360799</v>
+        <v>3.510676263457047</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.643605194074302</v>
+        <v>6.735230264885627e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.510676263457047</v>
+        <v>35927031.24610454</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>6.735230264885627e-15</v>
+        <v>2.833074138041355e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>35927031.24610454</v>
+        <v>8.693509066721578</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.833074138041355e-06</v>
+        <v>0.0001238060168315697</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>8.693509066721578</v>
+        <v>10.46948290542669</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001238060168315697</v>
+        <v>1.320766126732153</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.46948290542669</v>
+        <v>0.01357038645695269</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.320766126732153</v>
+        <v>3.206131166054665</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01357038645695269</v>
+        <v>0.9357438821171837</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.206131166054665</v>
+        <v>1.837262823113581</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9357438821171837</v>
+        <v>13</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.837262823113581</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2104892827301453</v>
       </c>
     </row>
@@ -1169,72 +1145,66 @@
         <v>1.956878996216641e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.05220759820855631</v>
+        <v>5.336615749971689e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.672183353235051</v>
+        <v>3.937067838077773e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.336615749971689e-07</v>
+        <v>-0.03058408414622616</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.937067838077773e-06</v>
+        <v>0.1017700780818862</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.03058408414622616</v>
+        <v>0.01128393531632345</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1017700780818862</v>
+        <v>1.471935201551617</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01128393531632345</v>
+        <v>1.539384389332338</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.378759544212063</v>
+        <v>3.799101113931307</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.539384389332338</v>
+        <v>7.60427594627389e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.799101113931307</v>
+        <v>32578792.41070875</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.60427594627389e-15</v>
+        <v>3.082120742184719e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>32578792.41070875</v>
+        <v>8.071009027629801</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.082120742184719e-06</v>
+        <v>0.000123207503715115</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>8.071009027629801</v>
+        <v>9.190481411690081</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000123207503715115</v>
+        <v>1.410019848447924</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.190481411690081</v>
+        <v>0.01040671546579744</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.410019848447924</v>
+        <v>3.240041776501085</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01040671546579744</v>
+        <v>0.9304733122807577</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.240041776501085</v>
+        <v>1.889231127319953</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9304733122807577</v>
+        <v>13</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.889231127319953</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.205270511480426</v>
       </c>
     </row>
@@ -1249,72 +1219,66 @@
         <v>1.957814473422293e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.01198948522019575</v>
+        <v>5.336615749971689e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.675887839716009</v>
+        <v>3.931546958119904e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.336615749971689e-07</v>
+        <v>-0.02657401864152306</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.931546958119904e-06</v>
+        <v>0.09670909155374222</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.02657401864152306</v>
+        <v>0.01005673368414898</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.09670909155374222</v>
+        <v>1.488574856250461</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01005673368414898</v>
+        <v>1.564721310034047</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.395271986395711</v>
+        <v>3.656154882931799</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.564721310034047</v>
+        <v>8.210515080551001e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.656154882931799</v>
+        <v>29285013.59489182</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>8.210515080551001e-15</v>
+        <v>3.439150834733037e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>29285013.59489182</v>
+        <v>7.041436433759571</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.439150834733037e-06</v>
+        <v>0.0001174999709234352</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>7.041436433759571</v>
+        <v>7.447764905486514</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001174999709234352</v>
+        <v>1.388955382233277</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.447764905486514</v>
+        <v>0.006517629632415245</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.388955382233277</v>
+        <v>3.240998493953497</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.006517629632415245</v>
+        <v>0.9298983225339162</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.240998493953497</v>
+        <v>1.895282172819814</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9298983225339162</v>
+        <v>12</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.895282172819814</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.204005635604423</v>
       </c>
     </row>
@@ -1329,72 +1293,66 @@
         <v>1.963292565667459e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.07273957597272689</v>
+        <v>5.336615749971689e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.679413926513018</v>
+        <v>3.926472474871484e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.336615749971689e-07</v>
+        <v>-0.02550489578666771</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.926472474871484e-06</v>
+        <v>0.09571368417344273</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.02550489578666771</v>
+        <v>0.009811223017855667</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.09571368417344273</v>
+        <v>1.465642534276358</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.009811223017855667</v>
+        <v>1.571021305369956</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.374600757530372</v>
+        <v>3.743013477398269</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.571021305369956</v>
+        <v>7.833877780323258e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.743013477398269</v>
+        <v>30489504.59751293</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>7.833877780323258e-15</v>
+        <v>3.273738733873049e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>30489504.59751293</v>
+        <v>7.282450266353879</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.273738733873049e-06</v>
+        <v>0.0001153741082481828</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>7.282450266353879</v>
+        <v>7.638945603179434</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001153741082481828</v>
+        <v>1.369982739511218</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.638945603179434</v>
+        <v>0.006732481863650898</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.369982739511218</v>
+        <v>3.150929872435861</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.006732481863650898</v>
+        <v>0.9267610719394157</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.150929872435861</v>
+        <v>1.898527750358339</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9267610719394157</v>
+        <v>13</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.898527750358339</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2169991474937391</v>
       </c>
     </row>
@@ -1409,72 +1367,66 @@
         <v>1.970286902072716e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1318462927765089</v>
+        <v>5.336615749971689e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.679073177028172</v>
+        <v>3.921441801252623e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.336615749971689e-07</v>
+        <v>-0.02589313004023848</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.921441801252623e-06</v>
+        <v>0.09523023641015875</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.02589313004023848</v>
+        <v>0.009739045355454405</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.09523023641015875</v>
+        <v>1.471948025159266</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.009739045355454405</v>
+        <v>1.662636755482077</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.381438852495684</v>
+        <v>3.623655706747508</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.662636755482077</v>
+        <v>8.358449414308123e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.623655706747508</v>
+        <v>28821354.9684562</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>8.358449414308123e-15</v>
+        <v>3.477673567923887e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>28821354.9684562</v>
+        <v>6.94311737274503</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.477673567923887e-06</v>
+        <v>0.0001118496253766956</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>6.94311737274503</v>
+        <v>7.745671002976865</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001118496253766956</v>
+        <v>1.426641443372075</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.745671002976865</v>
+        <v>0.006710465171496769</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.426641443372075</v>
+        <v>3.117603819184893</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.006710465171496769</v>
+        <v>0.925504943659614</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.117603819184893</v>
+        <v>1.884557616020302</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.925504943659614</v>
+        <v>9</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.884557616020302</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2303345244518014</v>
       </c>
     </row>
@@ -1851,7 +1803,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.211543156558287</v>
+        <v>1.205815432358481</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.989271040743044</v>
@@ -1940,7 +1892,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.209411778555927</v>
+        <v>1.210021100005599</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.877976609840012</v>
@@ -2029,7 +1981,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.224158790071678</v>
+        <v>1.22219946485676</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.006387587556208</v>
@@ -2118,7 +2070,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.233071228958637</v>
+        <v>1.231212566213632</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.925545622338641</v>
@@ -2207,7 +2159,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.249954130874596</v>
+        <v>1.253538537833651</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.886826908658929</v>
@@ -2296,7 +2248,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.275838674120148</v>
+        <v>1.279765859782038</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.729108652237744</v>
@@ -2385,7 +2337,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.3079588195897</v>
+        <v>1.314308156306021</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.161679376186732</v>
@@ -2474,7 +2426,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.313316551806066</v>
+        <v>1.322855116930881</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.236687333877774</v>
@@ -2563,7 +2515,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.342548617513271</v>
+        <v>1.353818476887735</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.175762632673335</v>
@@ -2652,7 +2604,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.360100201757911</v>
+        <v>1.373343262812825</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.194801106336873</v>
@@ -2741,7 +2693,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.376899592430918</v>
+        <v>1.377838290678021</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.150432580550573</v>
@@ -2830,7 +2782,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.345568478201133</v>
+        <v>1.350169829951284</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.000854513997139</v>
@@ -2919,7 +2871,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.304891720455617</v>
+        <v>1.307055931229315</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.094289272059199</v>
@@ -3008,7 +2960,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.282785083902479</v>
+        <v>1.274361700669171</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.210035913396883</v>
@@ -3097,7 +3049,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.266924302021939</v>
+        <v>1.253820118324201</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.217614950623682</v>
@@ -3186,7 +3138,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.256450706266575</v>
+        <v>1.237839227896981</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.193123024532165</v>
@@ -3275,7 +3227,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.244685259938354</v>
+        <v>1.227722045772556</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.197750785247691</v>
@@ -3364,7 +3316,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.239746105657612</v>
+        <v>1.222635996669386</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.054364887782499</v>
@@ -3453,7 +3405,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.231467083452109</v>
+        <v>1.212645102881208</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.161454073018493</v>
@@ -3542,7 +3494,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.222102337546171</v>
+        <v>1.197280160658352</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.252917572111164</v>
@@ -3631,7 +3583,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.209509469171618</v>
+        <v>1.1841319405595</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.363605907133612</v>
@@ -3720,7 +3672,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.196527091668609</v>
+        <v>1.170326075268267</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.242168728909868</v>
@@ -3809,7 +3761,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.186557255004073</v>
+        <v>1.163245606557894</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.359347528286278</v>
@@ -3898,7 +3850,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.184569632903068</v>
+        <v>1.160266740408492</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.354805037546087</v>
@@ -3987,7 +3939,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.182776793938703</v>
+        <v>1.159844949755107</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.350848058454333</v>
@@ -4076,7 +4028,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.185175703739177</v>
+        <v>1.161870620430414</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.113568485023317</v>
@@ -4165,7 +4117,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.194835393137415</v>
+        <v>1.17401901526674</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.16637710333677</v>
@@ -4254,7 +4206,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.211285288997416</v>
+        <v>1.189600241760677</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.223491563926062</v>
@@ -4343,7 +4295,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.221593046800167</v>
+        <v>1.20754149317418</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.247406824241722</v>
@@ -4432,7 +4384,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.226150104205473</v>
+        <v>1.215142479246162</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.272146749685125</v>
@@ -4521,7 +4473,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.222467448662106</v>
+        <v>1.216497175808527</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.189192046628831</v>
@@ -4610,7 +4562,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.21978413966013</v>
+        <v>1.210738248555098</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.318479591807179</v>
@@ -4699,7 +4651,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.204180979301644</v>
+        <v>1.196149612845129</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.249041096419712</v>
@@ -4788,7 +4740,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.21804124517031</v>
+        <v>1.20686029429504</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.101336548395535</v>
@@ -4877,7 +4829,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.219799484262866</v>
+        <v>1.212150432113656</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.230495400236041</v>
@@ -4966,7 +4918,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.212897836179123</v>
+        <v>1.208788036307602</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.258783575038628</v>
@@ -5055,7 +5007,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.231615091882202</v>
+        <v>1.22784394751164</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.980411348440283</v>
@@ -5144,7 +5096,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.229589336634015</v>
+        <v>1.218483919036825</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.283838608665609</v>
@@ -5233,7 +5185,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.223467166012657</v>
+        <v>1.209426082221826</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.305822629958241</v>
@@ -5322,7 +5274,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.21994771929077</v>
+        <v>1.203166709054523</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.172549470739803</v>
@@ -5411,7 +5363,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.225158358999066</v>
+        <v>1.208304557466887</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.060952888667983</v>
@@ -5500,7 +5452,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.227794371667797</v>
+        <v>1.2108379048639</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.266224512582895</v>
@@ -5589,7 +5541,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.217794450095542</v>
+        <v>1.203351845776709</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.270403730550114</v>
@@ -5678,7 +5630,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.213939918090541</v>
+        <v>1.199297372626507</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.163670575116033</v>
@@ -5767,7 +5719,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.224464737092894</v>
+        <v>1.211111199410453</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.295039845818563</v>
@@ -5856,7 +5808,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.232986533933934</v>
+        <v>1.218522572534143</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.264914230491454</v>
@@ -5945,7 +5897,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.253248562562967</v>
+        <v>1.235144408260442</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.11420855533661</v>
@@ -6034,7 +5986,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.244227282139899</v>
+        <v>1.229986107149327</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.029933775664559</v>
@@ -6123,7 +6075,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.247309984597814</v>
+        <v>1.236164808935774</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.183076483357938</v>
@@ -6212,7 +6164,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.263554463438121</v>
+        <v>1.252624047544268</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.041642542935155</v>
@@ -6301,7 +6253,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.280037738635579</v>
+        <v>1.269226357601369</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.039879641151403</v>
@@ -6587,7 +6539,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.190437079082253</v>
+        <v>1.201084484056698</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.115525508508366</v>
@@ -6676,7 +6628,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.191935149901818</v>
+        <v>1.206021343959501</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.075294206457683</v>
@@ -6765,7 +6717,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.19007257910229</v>
+        <v>1.20125955325249</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.05477455942213</v>
@@ -6854,7 +6806,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.181063147692349</v>
+        <v>1.191407780253722</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.128386014980082</v>
@@ -6943,7 +6895,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.184363419613498</v>
+        <v>1.196981612820247</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.089947136213544</v>
@@ -7032,7 +6984,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.186504398836346</v>
+        <v>1.196211363346197</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.871144849752253</v>
@@ -7121,7 +7073,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.184319603511303</v>
+        <v>1.195152858038202</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.079940294695808</v>
@@ -7210,7 +7162,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.183693006133628</v>
+        <v>1.195763375210986</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.119047524757306</v>
@@ -7299,7 +7251,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.18089017729822</v>
+        <v>1.189846531689553</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.18669333187867</v>
@@ -7388,7 +7340,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.175317356388066</v>
+        <v>1.18602529714056</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.117982877330382</v>
@@ -7477,7 +7429,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.17388622742704</v>
+        <v>1.185868952716056</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.124422282528955</v>
@@ -7566,7 +7518,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.183214147613586</v>
+        <v>1.197063360739607</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.033049927934193</v>
@@ -7655,7 +7607,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.205363630180261</v>
+        <v>1.215167961498211</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.902559124365743</v>
@@ -7744,7 +7696,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.22748313835414</v>
+        <v>1.235106594890935</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.149949701524732</v>
@@ -7833,7 +7785,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.235874419652423</v>
+        <v>1.242032625570498</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.852045100411777</v>
@@ -7922,7 +7874,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.235030509781241</v>
+        <v>1.244021775955972</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.16635728019545</v>
@@ -8011,7 +7963,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.218321509837646</v>
+        <v>1.224419101191976</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.192294751999459</v>
@@ -8100,7 +8052,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.237113060438235</v>
+        <v>1.239467092156576</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.921284399707228</v>
@@ -8189,7 +8141,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.238679037172507</v>
+        <v>1.24524619114523</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.141262667370734</v>
@@ -8278,7 +8230,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.226372267528548</v>
+        <v>1.228517329790199</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.134919437996466</v>
@@ -8367,7 +8319,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.242059934343319</v>
+        <v>1.240657017488109</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.842325567868175</v>
@@ -8456,7 +8408,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.256495211663786</v>
+        <v>1.252076090314129</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.930076613738613</v>
@@ -8545,7 +8497,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.270721111851388</v>
+        <v>1.265237759503459</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.080768314983548</v>
@@ -8634,7 +8586,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.294002313484902</v>
+        <v>1.281440809051834</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.957514645535738</v>
@@ -8723,7 +8675,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.254269032138415</v>
+        <v>1.247876112291092</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.016001350432029</v>
@@ -8812,7 +8764,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.235002838491857</v>
+        <v>1.230154422303015</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.027513905222036</v>
@@ -8901,7 +8853,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.235082316278003</v>
+        <v>1.231511397379536</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.023062425950615</v>
@@ -8990,7 +8942,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.245241939133216</v>
+        <v>1.243839706473089</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.070639521831359</v>
@@ -9079,7 +9031,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.227002404024289</v>
+        <v>1.225234667829513</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.00483586887255</v>
@@ -9168,7 +9120,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.226644584349392</v>
+        <v>1.224277812700205</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.938890872318279</v>
@@ -9257,7 +9209,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.229728267286979</v>
+        <v>1.224476456678734</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.044754619292963</v>
@@ -9346,7 +9298,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.239133554948598</v>
+        <v>1.234790412972347</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.984365240686467</v>
@@ -9435,7 +9387,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.240982800259664</v>
+        <v>1.236804357794547</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.939556225304764</v>
@@ -9524,7 +9476,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.235878313393672</v>
+        <v>1.23552261932659</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.995681006093253</v>
@@ -9613,7 +9565,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.244844285822413</v>
+        <v>1.247468322832033</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.979061488852185</v>
@@ -9702,7 +9654,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.24808704849803</v>
+        <v>1.251543869585839</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.974528588286276</v>
@@ -9791,7 +9743,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.261212827277276</v>
+        <v>1.264366374539906</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.941116821114597</v>
@@ -9880,7 +9832,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.248897002751735</v>
+        <v>1.250986500083091</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.907613965879155</v>
@@ -9969,7 +9921,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.263607759687233</v>
+        <v>1.261722689507711</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.757218063725416</v>
@@ -10058,7 +10010,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.319997453612861</v>
+        <v>1.310801547302575</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.215524120824614</v>
@@ -10147,7 +10099,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.344190281858887</v>
+        <v>1.33287987878529</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.284972653504754</v>
@@ -10236,7 +10188,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.328997525615456</v>
+        <v>1.318009948876393</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.350440592788948</v>
@@ -10325,7 +10277,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.324757365867188</v>
+        <v>1.314256496979323</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.936957501099728</v>
@@ -10414,7 +10366,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.346762107368069</v>
+        <v>1.33556670695511</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.637243799369808</v>
@@ -10503,7 +10455,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.366544834959576</v>
+        <v>1.359489444788455</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.53845754413198</v>
@@ -10592,7 +10544,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.371677021929366</v>
+        <v>1.361625180002545</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.720465629856116</v>
@@ -10681,7 +10633,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.369683861730324</v>
+        <v>1.351454871394735</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.881393498292752</v>
@@ -10770,7 +10722,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.31266056043046</v>
+        <v>1.307135208479904</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.840910535363454</v>
@@ -10859,7 +10811,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.299287411439698</v>
+        <v>1.295226112834554</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.872317479658936</v>
@@ -10948,7 +10900,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.292191761344362</v>
+        <v>1.286970285281875</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.92539101089825</v>
@@ -11037,7 +10989,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.27809551913731</v>
+        <v>1.274099891137347</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.94403028551411</v>
@@ -11323,7 +11275,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.456953050488377</v>
+        <v>1.476858300999235</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.747115546784601</v>
@@ -11412,7 +11364,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.45601818105755</v>
+        <v>1.474920713528035</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.763607974176919</v>
@@ -11501,7 +11453,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.462055698394398</v>
+        <v>1.483015534915133</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.768861775646359</v>
@@ -11590,7 +11542,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.468355647139106</v>
+        <v>1.488661139693035</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.734813422189592</v>
@@ -11679,7 +11631,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.609815671677044</v>
+        <v>1.630153139452324</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.598496207483669</v>
@@ -11768,7 +11720,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.619664906212763</v>
+        <v>1.638885222757869</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.316547000592938</v>
@@ -11857,7 +11809,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.646734591581571</v>
+        <v>1.659538012738278</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.830403114447465</v>
@@ -11946,7 +11898,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.650103796010548</v>
+        <v>1.6604409726384</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.108330964142667</v>
@@ -12035,7 +11987,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.646318441098767</v>
+        <v>1.65677015003196</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.019291751480801</v>
@@ -12124,7 +12076,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.64617503491671</v>
+        <v>1.653666469931743</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.821569602874438</v>
@@ -12213,7 +12165,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.640327759818383</v>
+        <v>1.644056158312604</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.11399424656129</v>
@@ -12302,7 +12254,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.651093460987435</v>
+        <v>1.646653193757675</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.852788623943527</v>
@@ -12391,7 +12343,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.646559697504024</v>
+        <v>1.63853102533288</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.015233768746604</v>
@@ -12480,7 +12432,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.654426688231643</v>
+        <v>1.641798402573324</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.213367223957301</v>
@@ -12569,7 +12521,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.636089979921858</v>
+        <v>1.62601240924359</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.903085952248985</v>
@@ -12658,7 +12610,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.64566563660364</v>
+        <v>1.620877317422734</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.139042156156892</v>
@@ -12747,7 +12699,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.645111496387668</v>
+        <v>1.61641718457222</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.033828750143289</v>
@@ -12836,7 +12788,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.634850213064586</v>
+        <v>1.606605638608693</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.092208042645799</v>
@@ -12925,7 +12877,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.625081250462465</v>
+        <v>1.591166198166227</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.224674414561801</v>
@@ -13014,7 +12966,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.613806408885583</v>
+        <v>1.583159004571199</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.105375362515057</v>
@@ -13103,7 +13055,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.596606584151887</v>
+        <v>1.558120823532023</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.845442287611255</v>
@@ -13192,7 +13144,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.568067572065627</v>
+        <v>1.532883065736117</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.738106591439493</v>
@@ -13281,7 +13233,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.571786757673633</v>
+        <v>1.53458201965656</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.036669034430478</v>
@@ -13370,7 +13322,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.56973252801014</v>
+        <v>1.535715195563184</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.897465740988355</v>
@@ -13459,7 +13411,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.574249944026199</v>
+        <v>1.546033825473708</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.164410782544964</v>
@@ -13548,7 +13500,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.579025842184627</v>
+        <v>1.551805007492528</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.100162321703153</v>
@@ -13637,7 +13589,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.573220043405154</v>
+        <v>1.548309824296016</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.17024407790682</v>
@@ -13726,7 +13678,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.574122415917026</v>
+        <v>1.549866968114329</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.021754004105855</v>
@@ -13815,7 +13767,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.562229378096974</v>
+        <v>1.54103097895936</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.190378589362128</v>
@@ -13904,7 +13856,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.562027391371817</v>
+        <v>1.543562693652583</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.973115634641224</v>
@@ -13993,7 +13945,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.559337987833165</v>
+        <v>1.547496811212321</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.080828915884458</v>
@@ -14082,7 +14034,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.559645215144603</v>
+        <v>1.551630630151046</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.695173078067862</v>
@@ -14171,7 +14123,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.567803725482573</v>
+        <v>1.558672426053287</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.060828881027783</v>
@@ -14260,7 +14212,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.570885634909656</v>
+        <v>1.564252240504215</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.098657607234665</v>
@@ -14349,7 +14301,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.579632323662388</v>
+        <v>1.571356474186233</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.014123667388746</v>
@@ -14438,7 +14390,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.590802118668076</v>
+        <v>1.582796354455126</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.798725804341717</v>
@@ -14527,7 +14479,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.598270026594022</v>
+        <v>1.593482373276152</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.846072907184038</v>
@@ -14616,7 +14568,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.590259948235662</v>
+        <v>1.585083275450837</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.128776438062428</v>
@@ -14705,7 +14657,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.588812717955964</v>
+        <v>1.577727039171849</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.286557277315237</v>
@@ -14794,7 +14746,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.586572692649215</v>
+        <v>1.565798937210207</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.833752179223612</v>
@@ -14883,7 +14835,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.590979423561367</v>
+        <v>1.570865771190445</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.220663332778646</v>
@@ -14972,7 +14924,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.583932170475057</v>
+        <v>1.567828344809181</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.274735732976356</v>
@@ -15061,7 +15013,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.56987377667077</v>
+        <v>1.555870525843414</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.917712331915211</v>
@@ -15150,7 +15102,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.581463051328612</v>
+        <v>1.565918730811642</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.904946386535545</v>
@@ -15239,7 +15191,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.586324261753857</v>
+        <v>1.566487482930133</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.260494746446423</v>
@@ -15328,7 +15280,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.564937054179016</v>
+        <v>1.550884461250095</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.232824850849201</v>
@@ -15417,7 +15369,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.556744014378655</v>
+        <v>1.543805382747675</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.00210267940258</v>
@@ -15506,7 +15458,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.563612931950246</v>
+        <v>1.568242689880433</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.500727785761669</v>
@@ -15595,7 +15547,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.567996981618886</v>
+        <v>1.568310296410514</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.610967256921879</v>
@@ -15684,7 +15636,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.560330261645481</v>
+        <v>1.560043433029995</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.572795226492663</v>
@@ -15773,7 +15725,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.566747313997733</v>
+        <v>1.570027005342449</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.658876269502685</v>
@@ -16059,7 +16011,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.512250117790134</v>
+        <v>1.501231647808301</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.498076599323425</v>
@@ -16148,7 +16100,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.508610709648743</v>
+        <v>1.49818663972043</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.418811737017817</v>
@@ -16237,7 +16189,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.523486916565368</v>
+        <v>1.513823743253424</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.615500469006081</v>
@@ -16326,7 +16278,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.522250496504358</v>
+        <v>1.512930663639143</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.500607130876349</v>
@@ -16415,7 +16367,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.540858002435576</v>
+        <v>1.53348418529711</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.612381862416797</v>
@@ -16504,7 +16456,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.552216362455011</v>
+        <v>1.537161556642491</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.367400732997996</v>
@@ -16593,7 +16545,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.565040868395885</v>
+        <v>1.558470855672039</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.748304375419154</v>
@@ -16682,7 +16634,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.561528166911291</v>
+        <v>1.557311478591297</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.781361134530543</v>
@@ -16771,7 +16723,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.557601108359462</v>
+        <v>1.552531395043522</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.774175849353138</v>
@@ -16860,7 +16812,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.554662747666372</v>
+        <v>1.545786835031087</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.622366129519943</v>
@@ -16949,7 +16901,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.570293947232887</v>
+        <v>1.55823704527726</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.874764434624394</v>
@@ -17038,7 +16990,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.588847317429734</v>
+        <v>1.57418685407533</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.063583513348028</v>
@@ -17127,7 +17079,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.60658246563794</v>
+        <v>1.561096253532323</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.852829463792637</v>
@@ -17216,7 +17168,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.612228690371937</v>
+        <v>1.56217986472198</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.026259665923507</v>
@@ -17305,7 +17257,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.598373049953503</v>
+        <v>1.544013477151176</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.769312542480754</v>
@@ -17394,7 +17346,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.586869670704601</v>
+        <v>1.536672317498623</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.957792773444434</v>
@@ -17483,7 +17435,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.582479546908492</v>
+        <v>1.535798994422651</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.915995043988</v>
@@ -17572,7 +17524,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.583696832500958</v>
+        <v>1.530363021557423</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.971433861338998</v>
@@ -17661,7 +17613,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.575209473894767</v>
+        <v>1.521293670046386</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.200266805409236</v>
@@ -17750,7 +17702,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.558356689174298</v>
+        <v>1.505615477747826</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.975009667414169</v>
@@ -17839,7 +17791,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.560940670778838</v>
+        <v>1.504435795184543</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.689719857325993</v>
@@ -17928,7 +17880,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.54980808648294</v>
+        <v>1.500007179839979</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.122405415156355</v>
@@ -18017,7 +17969,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.55339470712665</v>
+        <v>1.505954711355463</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.313390619060284</v>
@@ -18106,7 +18058,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.547667985449875</v>
+        <v>1.499532972342266</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.89616520698391</v>
@@ -18195,7 +18147,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.54019421915531</v>
+        <v>1.500137974708946</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.845849605780908</v>
@@ -18284,7 +18236,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.52910441377518</v>
+        <v>1.489054559279333</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.948422483701399</v>
@@ -18373,7 +18325,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.524019766552572</v>
+        <v>1.48504112893932</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.839494414111327</v>
@@ -18462,7 +18414,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.536436352189228</v>
+        <v>1.511496708582043</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.082330294309444</v>
@@ -18551,7 +18503,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.53804185760077</v>
+        <v>1.515917524509635</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.819331148423408</v>
@@ -18640,7 +18592,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.545839316116871</v>
+        <v>1.523358273368024</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.822573851866967</v>
@@ -18729,7 +18681,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.551544402572165</v>
+        <v>1.52849025182578</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.794693532010475</v>
@@ -18818,7 +18770,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.546854880072442</v>
+        <v>1.519680810036041</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.822054992472309</v>
@@ -18907,7 +18859,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.546212266551115</v>
+        <v>1.520239117663566</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.495285294661767</v>
@@ -18996,7 +18948,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.554186741108133</v>
+        <v>1.526009415419703</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.802376543027612</v>
@@ -19085,7 +19037,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.55597045997433</v>
+        <v>1.526203987333539</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.830083027206105</v>
@@ -19174,7 +19126,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.562647857780047</v>
+        <v>1.532670308655423</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.071063109872843</v>
@@ -19263,7 +19215,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.558530064872681</v>
+        <v>1.527844693116513</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.925978506935342</v>
@@ -19352,7 +19304,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.547284489420444</v>
+        <v>1.516391998124066</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.713355536784575</v>
@@ -19441,7 +19393,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.550314031907315</v>
+        <v>1.517054197963829</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.809785934779411</v>
@@ -19530,7 +19482,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.561440372553414</v>
+        <v>1.518438259225949</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.016462222030218</v>
@@ -19619,7 +19571,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.560314100548054</v>
+        <v>1.512248649018972</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.085005204107167</v>
@@ -19708,7 +19660,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.551173580289907</v>
+        <v>1.511723922838085</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.106650199051533</v>
@@ -19797,7 +19749,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.532473981989657</v>
+        <v>1.498990660133809</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.959934581656256</v>
@@ -19886,7 +19838,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.52470652214097</v>
+        <v>1.495070253566178</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.601049680649887</v>
@@ -19975,7 +19927,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.5371689441686</v>
+        <v>1.509738782797174</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.111635276404381</v>
@@ -20064,7 +20016,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.545128133670125</v>
+        <v>1.522829894655585</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.872336270555024</v>
@@ -20153,7 +20105,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.554336673998367</v>
+        <v>1.534985925230305</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.756945371278906</v>
@@ -20242,7 +20194,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.576073490382253</v>
+        <v>1.552687852481235</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.990128510986321</v>
@@ -20331,7 +20283,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.571519556501101</v>
+        <v>1.550976566382307</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.10918122188882</v>
@@ -20420,7 +20372,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.574349705743798</v>
+        <v>1.553014546829247</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.958230925185676</v>
@@ -20509,7 +20461,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.568190446368149</v>
+        <v>1.548228525160834</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.218009183860409</v>
@@ -20795,7 +20747,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.534584795212549</v>
+        <v>1.544249453118366</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.523495226889026</v>
@@ -20884,7 +20836,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.528537335459558</v>
+        <v>1.537248781547266</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.49339121529764</v>
@@ -20973,7 +20925,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.548212219020264</v>
+        <v>1.55574742017824</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.700414645957566</v>
@@ -21062,7 +21014,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.53052683336475</v>
+        <v>1.539836342710633</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.401986912922417</v>
@@ -21151,7 +21103,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.546025554038731</v>
+        <v>1.556364782783969</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.65555608519058</v>
@@ -21240,7 +21192,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.553457063855877</v>
+        <v>1.556098004774933</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.737247928870569</v>
@@ -21329,7 +21281,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.557988333681418</v>
+        <v>1.565580019334873</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.744336975564265</v>
@@ -21418,7 +21370,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.544158045084486</v>
+        <v>1.555112412929806</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.770144012206277</v>
@@ -21507,7 +21459,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.529463851960028</v>
+        <v>1.540540351439631</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.746805057084682</v>
@@ -21596,7 +21548,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.537814534540187</v>
+        <v>1.552257481651476</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.960713930683095</v>
@@ -21685,7 +21637,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.546737756820153</v>
+        <v>1.555252744805578</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.814302975910248</v>
@@ -21774,7 +21726,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.538308455300731</v>
+        <v>1.545728936898132</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.758608766709357</v>
@@ -21863,7 +21815,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.541166928007493</v>
+        <v>1.538446540526476</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.657712232568598</v>
@@ -21952,7 +21904,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.536535291084409</v>
+        <v>1.530982502939026</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.794096832483172</v>
@@ -22041,7 +21993,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.534395242052206</v>
+        <v>1.527809542426633</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.709816180936181</v>
@@ -22130,7 +22082,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.534167275670903</v>
+        <v>1.517784429998785</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.809279841739738</v>
@@ -22219,7 +22171,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.525477698403009</v>
+        <v>1.505193056464174</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.796979040859341</v>
@@ -22308,7 +22260,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.514943524398022</v>
+        <v>1.494934914961509</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.611686093395638</v>
@@ -22397,7 +22349,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.52906476287951</v>
+        <v>1.495839327476719</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.861793113333055</v>
@@ -22486,7 +22438,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.507137819537055</v>
+        <v>1.47821984833579</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.21211713976098</v>
@@ -22575,7 +22527,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.450196747248796</v>
+        <v>1.425735826890111</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.054563632053174</v>
@@ -22664,7 +22616,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.436802786603163</v>
+        <v>1.415633178006612</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.078824843460021</v>
@@ -22753,7 +22705,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.450878380260007</v>
+        <v>1.427317796569664</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.12027802277363</v>
@@ -22842,7 +22794,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.461991709874185</v>
+        <v>1.435464493381745</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.060881596740691</v>
@@ -22931,7 +22883,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.450621550232466</v>
+        <v>1.425417073694403</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.154671957714366</v>
@@ -23020,7 +22972,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.437471887934659</v>
+        <v>1.414944858251931</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.149959688112352</v>
@@ -23109,7 +23061,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.462376734895865</v>
+        <v>1.437946269806179</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.137137725571332</v>
@@ -23198,7 +23150,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.469850204222854</v>
+        <v>1.448181230130424</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.158709314306756</v>
@@ -23287,7 +23239,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.470860533816165</v>
+        <v>1.451077729723162</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.1633115325182</v>
@@ -23376,7 +23328,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.468262889348256</v>
+        <v>1.449447202946168</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.093052333063906</v>
@@ -23465,7 +23417,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.468038164867494</v>
+        <v>1.454635374176576</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.136135389278289</v>
@@ -23554,7 +23506,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.476956799086607</v>
+        <v>1.462369459482566</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.121568283225585</v>
@@ -23643,7 +23595,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.481181630838516</v>
+        <v>1.467231694098479</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.065443421402046</v>
@@ -23732,7 +23684,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.470225192490229</v>
+        <v>1.465052977954637</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.133983057995336</v>
@@ -23821,7 +23773,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.527246641889503</v>
+        <v>1.515105052412991</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.953493722315754</v>
@@ -23910,7 +23862,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.571307661951634</v>
+        <v>1.554920026192955</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.404511259803098</v>
@@ -23999,7 +23951,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.597572682894398</v>
+        <v>1.580011002108368</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.020734752509635</v>
@@ -24088,7 +24040,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.567938098377494</v>
+        <v>1.551799627915607</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.588745620016318</v>
@@ -24177,7 +24129,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.556075398448998</v>
+        <v>1.540655362795478</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.665353507743007</v>
@@ -24266,7 +24218,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.575212572364445</v>
+        <v>1.550668355438049</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.822233195977882</v>
@@ -24355,7 +24307,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.567963947822521</v>
+        <v>1.543563228365764</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.704400800288274</v>
@@ -24444,7 +24396,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.561897373334045</v>
+        <v>1.541616745615601</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.909686712031286</v>
@@ -24533,7 +24485,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.55179831615731</v>
+        <v>1.535780779437192</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.903780450306923</v>
@@ -24622,7 +24574,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.535876244127235</v>
+        <v>1.521874833316444</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.810733450642578</v>
@@ -24711,7 +24663,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.536627907127554</v>
+        <v>1.522989048612195</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.73693468913424</v>
@@ -24800,7 +24752,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.535767500043352</v>
+        <v>1.524468874888594</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.832269275995691</v>
@@ -24889,7 +24841,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.534407271437584</v>
+        <v>1.52902576019798</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.832402101088312</v>
@@ -24978,7 +24930,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.531651338879155</v>
+        <v>1.527713520855745</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.848945992777943</v>
@@ -25067,7 +25019,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.533780410455914</v>
+        <v>1.527272426969029</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.95670909839566</v>
@@ -25156,7 +25108,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.533010680553818</v>
+        <v>1.524588854046806</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.559249268233896</v>
@@ -25245,7 +25197,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.534787097110566</v>
+        <v>1.531413525036784</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.947547713442859</v>
@@ -25531,7 +25483,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.210881192109844</v>
+        <v>1.222781263332512</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.226786224069785</v>
@@ -25620,7 +25572,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.219489863902021</v>
+        <v>1.229770540893481</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.174131415297392</v>
@@ -25709,7 +25661,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.243756297972778</v>
+        <v>1.256577963849791</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.089013198196397</v>
@@ -25798,7 +25750,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.21995959837961</v>
+        <v>1.229843036953889</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.897551958066641</v>
@@ -25887,7 +25839,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.232111106095496</v>
+        <v>1.246442610449223</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.842786937438385</v>
@@ -25976,7 +25928,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.243506427467692</v>
+        <v>1.255093659064089</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.846961936882568</v>
@@ -26065,7 +26017,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.25751336310988</v>
+        <v>1.270041391848507</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.924518582044101</v>
@@ -26154,7 +26106,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.244321818988701</v>
+        <v>1.255197172710059</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.963138697696023</v>
@@ -26243,7 +26195,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.235828172710426</v>
+        <v>1.248288517657817</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.936661497311969</v>
@@ -26332,7 +26284,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.225916619617272</v>
+        <v>1.238234441672902</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.953574429145561</v>
@@ -26421,7 +26373,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.226389205978113</v>
+        <v>1.238296916923886</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.975426377010884</v>
@@ -26510,7 +26462,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.204208541774626</v>
+        <v>1.215699385283475</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.936059237523685</v>
@@ -26599,7 +26551,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.201835996287038</v>
+        <v>1.212076773458179</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.919573646165028</v>
@@ -26688,7 +26640,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.213755568255488</v>
+        <v>1.220271401126922</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.956944916705944</v>
@@ -26777,7 +26729,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.205486707741825</v>
+        <v>1.212220303639755</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.986350637725372</v>
@@ -26866,7 +26818,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.190946578545266</v>
+        <v>1.194111793578542</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.047230058455732</v>
@@ -26955,7 +26907,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.178940944623276</v>
+        <v>1.183755866479939</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.054535105672199</v>
@@ -27044,7 +26996,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.175622981382326</v>
+        <v>1.179023958791452</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.998593687730209</v>
@@ -27133,7 +27085,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.183010946534429</v>
+        <v>1.185213086424833</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.046285608181285</v>
@@ -27222,7 +27174,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.161168116864847</v>
+        <v>1.157173143497945</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.016574103012231</v>
@@ -27311,7 +27263,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.156386457984821</v>
+        <v>1.152463334610873</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.132832592397717</v>
@@ -27400,7 +27352,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.151630326094207</v>
+        <v>1.147118978000684</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.100773768562893</v>
@@ -27489,7 +27441,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.15148437964994</v>
+        <v>1.143294288997183</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.152398556945079</v>
@@ -27578,7 +27530,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.142533498747966</v>
+        <v>1.134004623718553</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.179643784320575</v>
@@ -27667,7 +27619,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.143304961073796</v>
+        <v>1.135798000076371</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.170946790872775</v>
@@ -27756,7 +27708,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.153922679780363</v>
+        <v>1.147122485448278</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.131230157281653</v>
@@ -27845,7 +27797,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.159335772077613</v>
+        <v>1.152366789868738</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.155250588550554</v>
@@ -27934,7 +27886,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.1582476280898</v>
+        <v>1.152082597231184</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.111510354323232</v>
@@ -28023,7 +27975,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.150738228088832</v>
+        <v>1.147235175352227</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.213114646817929</v>
@@ -28112,7 +28064,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.150758752193681</v>
+        <v>1.145916373991158</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.145437476911656</v>
@@ -28201,7 +28153,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.163226303191354</v>
+        <v>1.157637623938881</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.23290597307345</v>
@@ -28290,7 +28242,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.170161002138277</v>
+        <v>1.1640378665393</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.141376840268364</v>
@@ -28379,7 +28331,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.167347958388588</v>
+        <v>1.15938146832082</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.192640512720054</v>
@@ -28468,7 +28420,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.171107302169792</v>
+        <v>1.161978751736132</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.117881098531966</v>
@@ -28557,7 +28509,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.19688561353686</v>
+        <v>1.193482391090058</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.040483735257069</v>
@@ -28646,7 +28598,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.185675088130048</v>
+        <v>1.174789336055141</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.146180546164554</v>
@@ -28735,7 +28687,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.186236373592349</v>
+        <v>1.177831350736004</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.133902359475819</v>
@@ -28824,7 +28776,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.178036174025455</v>
+        <v>1.16565367332798</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.234005245943942</v>
@@ -28913,7 +28865,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.176488224759219</v>
+        <v>1.163689667509511</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.075602999357861</v>
@@ -29002,7 +28954,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.181796715622063</v>
+        <v>1.166740315430102</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.158022117596397</v>
@@ -29091,7 +29043,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.169567696938526</v>
+        <v>1.155828178293129</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.173664131810141</v>
@@ -29180,7 +29132,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.164784225436535</v>
+        <v>1.152141995258994</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.238794083200556</v>
@@ -29269,7 +29221,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.167958684759614</v>
+        <v>1.150113622810343</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.075210207260478</v>
@@ -29358,7 +29310,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.162046020167654</v>
+        <v>1.149174123061178</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.165031873695907</v>
@@ -29447,7 +29399,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.168463491193545</v>
+        <v>1.159017305604795</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.34820449339376</v>
@@ -29536,7 +29488,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.171392455282656</v>
+        <v>1.158968445351614</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.225111292360465</v>
@@ -29625,7 +29577,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.163650965193276</v>
+        <v>1.150489785972503</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.387351461911148</v>
@@ -29714,7 +29666,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.165640054968803</v>
+        <v>1.155228838236219</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.249376972679799</v>
@@ -29803,7 +29755,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.169877282455999</v>
+        <v>1.158450121120867</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.222399155154002</v>
@@ -29892,7 +29844,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.155541804111361</v>
+        <v>1.143621249251406</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.335439715815168</v>
@@ -29981,7 +29933,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.159876618025127</v>
+        <v>1.151050909217018</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.18481400391679</v>
